--- a/2. Automação em Python/Python_Automacao-main/automação python/Projeto-11 (Alunos RPA-Planilhas)/alunos.xlsx
+++ b/2. Automação em Python/Python_Automacao-main/automação python/Projeto-11 (Alunos RPA-Planilhas)/alunos.xlsx
@@ -53,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +77,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -125,13 +131,13 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">

--- a/2. Automação em Python/Python_Automacao-main/automação python/Projeto-11 (Alunos RPA-Planilhas)/alunos.xlsx
+++ b/2. Automação em Python/Python_Automacao-main/automação python/Projeto-11 (Alunos RPA-Planilhas)/alunos.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Plan1"/>
-    <sheet r:id="rId2" sheetId="2" name="Plan2"/>
-    <sheet r:id="rId3" sheetId="3" name="Plan3"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Matrícula</t>
   </si>
@@ -27,33 +27,65 @@
     <t>E-mail</t>
   </si>
   <si>
-    <t>João Pedro Unigama</t>
-  </si>
-  <si>
-    <t>teste.ava@gmail.com</t>
-  </si>
-  <si>
-    <t>Daniel Oliveira</t>
-  </si>
-  <si>
-    <t>daniel.tech.edu@gmail.com</t>
-  </si>
-  <si>
-    <t>weverton_machado</t>
-  </si>
-  <si>
-    <t>WEVERTON DE MELLO MACHADO</t>
-  </si>
-  <si>
-    <t>wevertonmachado@gamaesouza.com</t>
+    <t>anabeatriz.mesquiita@gmail.com</t>
+  </si>
+  <si>
+    <t>cleyton.sodre@hotmail.com</t>
+  </si>
+  <si>
+    <t>bruninhaduque16@gmail.com</t>
+  </si>
+  <si>
+    <t>egnaldorc@gmail.com</t>
+  </si>
+  <si>
+    <t>ronanlopes41@gmail.com</t>
+  </si>
+  <si>
+    <t>biel.wild3128@gmail.com</t>
+  </si>
+  <si>
+    <t>marcelonascimento.rev@gmail.com</t>
+  </si>
+  <si>
+    <t>joaocosta212@gmail.com</t>
+  </si>
+  <si>
+    <t>jorrginn@gmail.com</t>
+  </si>
+  <si>
+    <t>kguimaraes1999@gmail.com</t>
+  </si>
+  <si>
+    <t>lewangellus@gmail.com</t>
+  </si>
+  <si>
+    <t>lucaslubero@gmail.com</t>
+  </si>
+  <si>
+    <t>luiz.canabarro@hotmail.com</t>
+  </si>
+  <si>
+    <t>marcelo.menezes.tiiiii@gmail.com</t>
+  </si>
+  <si>
+    <t>matheushyan1@gmail.com</t>
+  </si>
+  <si>
+    <t>mroliveira1998@gmail.com</t>
+  </si>
+  <si>
+    <t>sergio175rocha@gmail.com</t>
+  </si>
+  <si>
+    <t>wevertonmello1@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,15 +108,10 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,53 +138,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -168,10 +188,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -209,71 +229,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -301,7 +321,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -324,11 +344,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -337,13 +357,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -353,7 +373,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -362,7 +382,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -371,7 +391,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -379,10 +399,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -451,18 +471,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="32.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="24.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,38 +495,139 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4">
-        <v>55114567</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId3"/>
+    <hyperlink ref="C14" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
